--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Alk.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ptn-Alk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Ptn</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.459193</v>
+        <v>2.327816333333333</v>
       </c>
       <c r="H2">
-        <v>4.377578999999999</v>
+        <v>6.983449</v>
       </c>
       <c r="I2">
-        <v>0.01359248715138807</v>
+        <v>0.02128501190197005</v>
       </c>
       <c r="J2">
-        <v>0.01359248715138806</v>
+        <v>0.02128501190197004</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +561,22 @@
         <v>0.13463</v>
       </c>
       <c r="O2">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P2">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q2">
-        <v>0.06548371786333332</v>
+        <v>0.1044646376522222</v>
       </c>
       <c r="R2">
-        <v>0.5893534607699998</v>
+        <v>0.94018173887</v>
       </c>
       <c r="S2">
-        <v>0.0109546749748059</v>
+        <v>0.01658631555639164</v>
       </c>
       <c r="T2">
-        <v>0.01095467497480589</v>
+        <v>0.01658631555639164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.327816333333333</v>
+      </c>
+      <c r="H3">
+        <v>6.983449</v>
+      </c>
+      <c r="I3">
+        <v>0.02128501190197005</v>
+      </c>
+      <c r="J3">
+        <v>0.02128501190197004</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>1.459193</v>
-      </c>
-      <c r="H3">
-        <v>4.377578999999999</v>
-      </c>
-      <c r="I3">
-        <v>0.01359248715138807</v>
-      </c>
-      <c r="J3">
-        <v>0.01359248715138806</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M3">
-        <v>0.010806</v>
+        <v>0.012713</v>
       </c>
       <c r="N3">
-        <v>0.032418</v>
+        <v>0.03813900000000001</v>
       </c>
       <c r="O3">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="P3">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="Q3">
-        <v>0.015768039558</v>
+        <v>0.02959352904566667</v>
       </c>
       <c r="R3">
-        <v>0.141912356022</v>
+        <v>0.2663417614110001</v>
       </c>
       <c r="S3">
-        <v>0.00263781217658217</v>
+        <v>0.004698696345578407</v>
       </c>
       <c r="T3">
-        <v>0.002637812176582169</v>
+        <v>0.004698696345578406</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +646,10 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -664,10 +667,10 @@
         <v>309.115586</v>
       </c>
       <c r="I4">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J4">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +685,10 @@
         <v>0.13463</v>
       </c>
       <c r="O4">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P4">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q4">
         <v>4.624025704797778</v>
@@ -694,10 +697,10 @@
         <v>41.61623134318</v>
       </c>
       <c r="S4">
-        <v>0.7735464680995271</v>
+        <v>0.7341771455329477</v>
       </c>
       <c r="T4">
-        <v>0.773546468099527</v>
+        <v>0.7341771455329476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,40 +729,40 @@
         <v>309.115586</v>
       </c>
       <c r="I5">
-        <v>0.9598112634857745</v>
+        <v>0.9421603747796319</v>
       </c>
       <c r="J5">
-        <v>0.9598112634857743</v>
+        <v>0.9421603747796318</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.010806</v>
+        <v>0.012713</v>
       </c>
       <c r="N5">
-        <v>0.032418</v>
+        <v>0.03813900000000001</v>
       </c>
       <c r="O5">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="P5">
-        <v>0.1940639816100762</v>
+        <v>0.2207514079493428</v>
       </c>
       <c r="Q5">
-        <v>1.113434340772</v>
+        <v>1.309928814939334</v>
       </c>
       <c r="R5">
-        <v>10.020909066948</v>
+        <v>11.789359334454</v>
       </c>
       <c r="S5">
-        <v>0.1862647953862473</v>
+        <v>0.2079832292466842</v>
       </c>
       <c r="T5">
-        <v>0.1862647953862473</v>
+        <v>0.2079832292466842</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H6">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I6">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J6">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +809,22 @@
         <v>0.13463</v>
       </c>
       <c r="O6">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="P6">
-        <v>0.8059360183899238</v>
+        <v>0.7792485920506572</v>
       </c>
       <c r="Q6">
-        <v>0.1281311705577778</v>
+        <v>0.1784192751155556</v>
       </c>
       <c r="R6">
-        <v>1.15318053502</v>
+        <v>1.60577347604</v>
       </c>
       <c r="S6">
-        <v>0.02143487531559077</v>
+        <v>0.02832842256401879</v>
       </c>
       <c r="T6">
-        <v>0.02143487531559077</v>
+        <v>0.02832842256401879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,10 +832,10 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -844,46 +847,170 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.855184666666666</v>
+        <v>3.975769333333333</v>
       </c>
       <c r="H7">
-        <v>8.565553999999999</v>
+        <v>11.927308</v>
       </c>
       <c r="I7">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648862</v>
       </c>
       <c r="J7">
-        <v>0.02659624936283746</v>
+        <v>0.03635351138648861</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.012713</v>
+      </c>
+      <c r="N7">
+        <v>0.03813900000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.2207514079493428</v>
+      </c>
+      <c r="P7">
+        <v>0.2207514079493428</v>
+      </c>
+      <c r="Q7">
+        <v>0.05054395553466667</v>
+      </c>
+      <c r="R7">
+        <v>0.4548955998120001</v>
+      </c>
+      <c r="S7">
+        <v>0.008025088822469826</v>
+      </c>
+      <c r="T7">
+        <v>0.008025088822469825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M7">
-        <v>0.010806</v>
-      </c>
-      <c r="N7">
-        <v>0.032418</v>
-      </c>
-      <c r="O7">
-        <v>0.1940639816100762</v>
-      </c>
-      <c r="P7">
-        <v>0.1940639816100762</v>
-      </c>
-      <c r="Q7">
-        <v>0.030853125508</v>
-      </c>
-      <c r="R7">
-        <v>0.277678129572</v>
-      </c>
-      <c r="S7">
-        <v>0.005161374047246689</v>
-      </c>
-      <c r="T7">
-        <v>0.005161374047246688</v>
+      <c r="G8">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.06598</v>
+      </c>
+      <c r="I8">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J8">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.04487666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.13463</v>
+      </c>
+      <c r="O8">
+        <v>0.7792485920506572</v>
+      </c>
+      <c r="P8">
+        <v>0.7792485920506572</v>
+      </c>
+      <c r="Q8">
+        <v>0.0009869874888888889</v>
+      </c>
+      <c r="R8">
+        <v>0.008882887399999999</v>
+      </c>
+      <c r="S8">
+        <v>0.0001567083972992028</v>
+      </c>
+      <c r="T8">
+        <v>0.0001567083972992028</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.02199333333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.06598</v>
+      </c>
+      <c r="I9">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="J9">
+        <v>0.0002011019319095741</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.012713</v>
+      </c>
+      <c r="N9">
+        <v>0.03813900000000001</v>
+      </c>
+      <c r="O9">
+        <v>0.2207514079493428</v>
+      </c>
+      <c r="P9">
+        <v>0.2207514079493428</v>
+      </c>
+      <c r="Q9">
+        <v>0.0002796012466666667</v>
+      </c>
+      <c r="R9">
+        <v>0.002516411220000001</v>
+      </c>
+      <c r="S9">
+        <v>4.439353461037135E-05</v>
+      </c>
+      <c r="T9">
+        <v>4.439353461037135E-05</v>
       </c>
     </row>
   </sheetData>
